--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42981,6 +42981,41 @@
         <v>833000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1681500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43016,6 +43016,41 @@
         <v>1681500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>542900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43051,6 +43051,41 @@
         <v>542900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>4094800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43086,6 +43086,41 @@
         <v>4094800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3573800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43121,6 +43121,41 @@
         <v>3573800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4792300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43156,6 +43156,41 @@
         <v>4792300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1622400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43191,6 +43191,41 @@
         <v>1622400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1137500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43226,6 +43226,41 @@
         <v>1137500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1240500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43261,6 +43261,41 @@
         <v>1240500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1335200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43296,6 +43296,41 @@
         <v>1335200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>4974300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43331,6 +43331,41 @@
         <v>4974300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>923500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43366,6 +43366,41 @@
         <v>923500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1369100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43401,6 +43401,76 @@
         <v>1369100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2508600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>974100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43471,6 +43471,76 @@
         <v>974100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1382700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>306700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43541,6 +43541,41 @@
         <v>306700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>985800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43576,6 +43576,41 @@
         <v>985800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1674200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43611,6 +43611,41 @@
         <v>1674200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>711300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,41 @@
         <v>711300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2117700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43681,6 +43681,76 @@
         <v>2117700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2803300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1833900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,41 @@
         <v>1833900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1206600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43786,6 +43786,41 @@
         <v>1206600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1359700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1862"/>
+  <dimension ref="A1:I1863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65556,6 +65556,41 @@
         <v>1359700</v>
       </c>
     </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1863" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1863" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1863" t="n">
+        <v>486600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1863"/>
+  <dimension ref="A1:I1864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65591,6 +65591,41 @@
         <v>486600</v>
       </c>
     </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1864" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H1864" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1864" t="n">
+        <v>703600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1864"/>
+  <dimension ref="A1:I1865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65626,6 +65626,41 @@
         <v>703600</v>
       </c>
     </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1865" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1865" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1865" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1865" t="n">
+        <v>286800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1865"/>
+  <dimension ref="A1:I1866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65661,6 +65661,41 @@
         <v>286800</v>
       </c>
     </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1866" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1866" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H1866" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1866" t="n">
+        <v>613000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1866"/>
+  <dimension ref="A1:I1867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65696,6 +65696,41 @@
         <v>613000</v>
       </c>
     </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1867" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1867" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1867" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1867" t="n">
+        <v>2046200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1867"/>
+  <dimension ref="A1:I1868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65731,6 +65731,41 @@
         <v>2046200</v>
       </c>
     </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1868" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1868" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1868" t="n">
+        <v>1464100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1868"/>
+  <dimension ref="A1:I1869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65766,6 +65766,41 @@
         <v>1464100</v>
       </c>
     </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1869" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1869" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1869" t="n">
+        <v>706600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1869"/>
+  <dimension ref="A1:I1870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65801,6 +65801,41 @@
         <v>706600</v>
       </c>
     </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1870" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1870" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1870" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1870" t="n">
+        <v>1242300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1870"/>
+  <dimension ref="A1:I1871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65836,6 +65836,41 @@
         <v>1242300</v>
       </c>
     </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1871" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1871" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1871" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1871" t="n">
+        <v>463800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1871"/>
+  <dimension ref="A1:I1872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65871,6 +65871,41 @@
         <v>463800</v>
       </c>
     </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1872" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1872" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1872" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1872" t="n">
+        <v>4365200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1872"/>
+  <dimension ref="A1:I1873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65906,6 +65906,41 @@
         <v>4365200</v>
       </c>
     </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1873" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1873" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H1873" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1873" t="n">
+        <v>549500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1873"/>
+  <dimension ref="A1:I1874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65941,6 +65941,41 @@
         <v>549500</v>
       </c>
     </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1874" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1874" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1874" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1874" t="n">
+        <v>1422200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1874"/>
+  <dimension ref="A1:I1875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65976,6 +65976,41 @@
         <v>1422200</v>
       </c>
     </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1875" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1875" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1875" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1875" t="n">
+        <v>655600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1875"/>
+  <dimension ref="A1:I1876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66011,6 +66011,41 @@
         <v>655600</v>
       </c>
     </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1876" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1876" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1876" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1876" t="n">
+        <v>212800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1876"/>
+  <dimension ref="A1:I1877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66046,6 +66046,41 @@
         <v>212800</v>
       </c>
     </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1877" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1877" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1877" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1877" t="n">
+        <v>90100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1877"/>
+  <dimension ref="A1:I1878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66081,6 +66081,41 @@
         <v>90100</v>
       </c>
     </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1878" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1878" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1878" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1878" t="n">
+        <v>260200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1878"/>
+  <dimension ref="A1:I1879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66116,6 +66116,41 @@
         <v>260200</v>
       </c>
     </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1879" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1879" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1879" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1879" t="n">
+        <v>825900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1879"/>
+  <dimension ref="A1:I1880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66151,6 +66151,41 @@
         <v>825900</v>
       </c>
     </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1880" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G1880" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1880" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1880" t="n">
+        <v>3021600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1880"/>
+  <dimension ref="A1:I1881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66186,6 +66186,41 @@
         <v>3021600</v>
       </c>
     </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1881" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G1881" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1881" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1881" t="n">
+        <v>1725200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1881"/>
+  <dimension ref="A1:I1882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66221,6 +66221,41 @@
         <v>1725200</v>
       </c>
     </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1882" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G1882" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1882" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1882" t="n">
+        <v>1252100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1882"/>
+  <dimension ref="A1:I1883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66256,6 +66256,41 @@
         <v>1252100</v>
       </c>
     </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1883" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1883" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1883" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1883" t="n">
+        <v>585800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1883"/>
+  <dimension ref="A1:I1884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66291,6 +66291,41 @@
         <v>585800</v>
       </c>
     </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1884" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1884" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1884" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1884" t="n">
+        <v>1021900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1884"/>
+  <dimension ref="A1:I1885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66326,6 +66326,41 @@
         <v>1021900</v>
       </c>
     </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1885" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1885" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1885" t="n">
+        <v>536400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1885"/>
+  <dimension ref="A1:I1886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66361,6 +66361,41 @@
         <v>536400</v>
       </c>
     </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1886" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1886" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1886" t="n">
+        <v>187800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1886"/>
+  <dimension ref="A1:I1887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66396,6 +66396,41 @@
         <v>187800</v>
       </c>
     </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H1887" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1887" t="n">
+        <v>860600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1887"/>
+  <dimension ref="A1:I1889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66431,6 +66431,76 @@
         <v>860600</v>
       </c>
     </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1888" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1888" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1888" t="n">
+        <v>1283800</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1889" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1889" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1889" t="n">
+        <v>697900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1889"/>
+  <dimension ref="A1:I1890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66501,6 +66501,41 @@
         <v>697900</v>
       </c>
     </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1890" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1890" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I1890" t="n">
+        <v>227000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1890"/>
+  <dimension ref="A1:I1893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66536,6 +66536,113 @@
         <v>227000</v>
       </c>
     </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1891" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1891" t="n">
+        <v>322800</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1892" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1892" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1893" t="n">
+        <v>101000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1893"/>
+  <dimension ref="A1:I1894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66643,6 +66643,41 @@
         <v>101000</v>
       </c>
     </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1894" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I1894" t="n">
+        <v>45400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1894"/>
+  <dimension ref="A1:I1895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66678,6 +66678,41 @@
         <v>45400</v>
       </c>
     </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1895" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1895" t="n">
+        <v>1990600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5226.xlsx
+++ b/data/5226.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1895"/>
+  <dimension ref="A1:I1898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66713,6 +66713,111 @@
         <v>1990600</v>
       </c>
     </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1896" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I1896" t="n">
+        <v>1105500</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1897" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1897" t="n">
+        <v>291100</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>GBGAQRS</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H1898" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I1898" t="n">
+        <v>3237900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
